--- a/data/input/empirica_regio_data/Arbeitsvolumen_Einwohner.xlsx
+++ b/data/input/empirica_regio_data/Arbeitsvolumen_Einwohner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49176\Desktop\Statistik Master\Masterarbeit\empirica regio data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49176\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0266A8B8-F699-47BE-9AD3-9D5E1DCD72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3A0724-76EE-4DB9-B5F5-C2F409E66D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadaten" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Nutzer: test.lukas.gansneder</t>
   </si>
   <si>
-    <t>Abgerufen am: 01.12.2025, 12:17:33</t>
+    <t>Abgerufen am: 30.01.2026, 10:09:08</t>
   </si>
   <si>
     <t>Die Daten finden Sie im nächsten Sheet...</t>
@@ -1642,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11885,7 +11885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V401"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I204" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:XFD225"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
